--- a/Teeth.xlsx
+++ b/Teeth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushc\hypotrochoids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38AF83-8FCF-4AD9-B0FD-CE2359820DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A80A587-9298-4A00-9379-5FC21DA85FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{514549B1-3DDE-47CA-A6AE-F7DAB5055219}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{514549B1-3DDE-47CA-A6AE-F7DAB5055219}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +73,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,13 +115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -145,8 +147,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -154,8 +154,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,23 +1765,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -2413,7 +2417,7 @@
   <dimension ref="A1:O217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,34 +2426,34 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="16">
         <v>96</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16">
         <v>140</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16">
         <v>144</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16">
         <v>105</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16">
         <v>210</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16">
         <v>216</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16">
         <v>432</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
@@ -4870,63 +4874,63 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="19">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="20">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="21">
         <f t="shared" si="9"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="20">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="21">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="20">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="21">
         <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="20">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="21">
         <f t="shared" si="11"/>
         <v>0.38095238095238093</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="20">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="21">
         <f t="shared" si="3"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="20">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="21">
         <f t="shared" si="3"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="20">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="21">
         <f t="shared" si="6"/>
         <v>9.2592592592592587E-2</v>
       </c>
@@ -6358,63 +6362,63 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
+      <c r="A65" s="22">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="17">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="18">
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="17">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="18">
         <f t="shared" si="1"/>
         <v>0.45714285714285713</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="17">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="18">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="17">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="18">
         <f t="shared" si="11"/>
         <v>0.60952380952380958</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="17">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="18">
         <f t="shared" si="3"/>
         <v>0.30476190476190479</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="17">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="18">
         <f t="shared" si="3"/>
         <v>0.29629629629629628</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="17">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="18">
         <f t="shared" si="6"/>
         <v>0.14814814814814814</v>
       </c>
@@ -6854,63 +6858,63 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="22">
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="17">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="18">
         <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="18">
         <f t="shared" si="14"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="17">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="18">
         <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="18">
         <f t="shared" si="24"/>
         <v>0.68571428571428572</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="18">
         <f t="shared" si="16"/>
         <v>0.34285714285714286</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="17">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="18">
         <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="17">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="O73" s="12">
+      <c r="O73" s="18">
         <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
@@ -7350,63 +7354,63 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="22">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="17">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="18">
         <f t="shared" si="22"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="17">
         <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="18">
         <f t="shared" si="14"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="17">
         <f t="shared" si="23"/>
         <v>9</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="18">
         <f t="shared" si="15"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="17">
         <f t="shared" si="23"/>
         <v>21</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="18">
         <f t="shared" si="24"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="17">
         <f t="shared" si="23"/>
         <v>21</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="18">
         <f t="shared" si="16"/>
         <v>0.38095238095238093</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="17">
         <f t="shared" si="17"/>
         <v>27</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M81" s="18">
         <f t="shared" si="16"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="17">
         <f t="shared" si="18"/>
         <v>27</v>
       </c>
-      <c r="O81" s="12">
+      <c r="O81" s="18">
         <f t="shared" si="19"/>
         <v>0.18518518518518517</v>
       </c>
@@ -7970,63 +7974,63 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="A91" s="22">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="17">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="18">
         <f t="shared" si="22"/>
         <v>0.9375</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="17">
         <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="18">
         <f t="shared" si="14"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="17">
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="18">
         <f t="shared" si="15"/>
         <v>0.625</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="17">
         <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="18">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="17">
         <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91" s="18">
         <f t="shared" si="16"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="17">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="M91" s="12">
+      <c r="M91" s="18">
         <f t="shared" si="16"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="17">
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="O91" s="12">
+      <c r="O91" s="18">
         <f t="shared" si="19"/>
         <v>0.20833333333333334</v>
       </c>
@@ -8342,63 +8346,63 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="A97" s="22">
         <f t="shared" si="25"/>
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="17">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="18">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="18">
         <f t="shared" si="14"/>
         <v>0.68571428571428572</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="17">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="18">
         <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="18">
         <f t="shared" si="24"/>
         <v>0.91428571428571426</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="17">
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="18">
         <f t="shared" si="16"/>
         <v>0.45714285714285713</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="17">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="M97" s="12">
+      <c r="M97" s="18">
         <f t="shared" si="16"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="17">
         <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" s="18">
         <f t="shared" si="19"/>
         <v>0.22222222222222221</v>
       </c>
@@ -9334,63 +9338,63 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
+      <c r="A113" s="22">
         <f t="shared" si="25"/>
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="17">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="18">
         <f t="shared" si="22"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="17">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="18">
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="17">
         <f t="shared" si="23"/>
         <v>9</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="18">
         <f t="shared" si="15"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="17">
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="18">
         <f t="shared" si="24"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="17">
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="K113" s="12">
+      <c r="K113" s="18">
         <f t="shared" si="16"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="17">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="M113" s="12">
+      <c r="M113" s="18">
         <f t="shared" si="16"/>
         <v>0.51851851851851849</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="17">
         <f t="shared" si="27"/>
         <v>27</v>
       </c>
-      <c r="O113" s="12">
+      <c r="O113" s="18">
         <f t="shared" si="19"/>
         <v>0.25925925925925924</v>
       </c>
